--- a/src/ai_text_corrected.xlsx
+++ b/src/ai_text_corrected.xlsx
@@ -329,26 +329,20 @@
 - Arbejdstagerrettigheder
 - Atomvåben
 - Økonomiske aktiviteter der understøtter bosættelser
-- Biodiversitet og dens påvirkninger
+- Biodiversitet
 - Kontroversielle våben
 - Flyselskaber
 - Fossile brændstoffer
 - Gambling
-- Schadelig miljøpraksis
-- Menneskerettigheder og relaterede problemer
+- Miljø
+- Menneskerettigheder
 - ILO-konventionsbrud
 - Internationale sanktioner og forretningsetik
-- Involvering i kernevåben
 - Israel/Palæstina
-- Klimaomstillinger
+- Klima
 - Krydstogtskibe
-- Arbejdspraksis og -rettigheder
-- Manglende klimaambitioner
-- Militært udstyr
-- Normovertrædelser relateret til menneskerettigheder
 - Principal Adverse Impacts (PAI)
 - SPU
-- Tjenester der understøtter bosættelser
 - Udnyttelse af naturressourcer
 - Usunde fødevarer
 - Våben og militærudstyr</t>
@@ -358,138 +352,114 @@
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
-- Arbejdstagerrettigheder relateret til ILO-konvention 87
-- Biodiversitet og dens påvirkninger
+- ILO-konventionsbrud
+- Biodiversitet
 - Kontroversielle våben
 - Fossile brændstoffer
-- Fossil ekspansion
-- Gambling
-- Skadelige miljøpraksisser
-- Brud på ILO-standarder
+- Gambling
+- Skadelige miljøpraksisser
 - Israel/Palæstina
-- Krydstogtskibes indvirkning
-- Eksponering for kul (over 5%)
-- Arbejdsretter (Labour rights)
+- Krydstogtsskibe
 - Normer for ansvarlig investering
 - Principal Adverse Impacts (PAI)
-- Uholdbare fødevarer</t>
+- Usunde fødevarer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder, herunder brud på ILO-konventioner og FN Global Compact principper
 - Biodiversitet og skadelige miljøpraksisser
-- Kontroversielle våben og konflikter relateret til dem
-- Ejendomsopkøb og negative effekter på lokalsamfund
-- Flytransport og krydstogtskibe med miljøpåvirkning
+- Kontroversielle våben
+- Ejendomsopkøb
+- Flyselskaber
 - Fossile brændstoffer, herunder kul og fossil ekspansion
-- Spil og gambling industrien
-- Menneskerettigheder, herunder normbrud og internationale konventioner
-- Usunde fødevarer som investeringstype
-- Generelt manglende klimaambitioner og dårlig ledelsespraksis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Usunde fødevarer er en eksklusionsårsag for investeringer foretaget af Frederikssund.  
-- Der er ingen yderligere eksklusionsårsager nævnt.  </t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder
+- Gambling
+- Menneskerettigheder
+- Usunde fødevarer
+- Manglende klimaambitioner
+- Israel/Palæstina
+- Krydstogtsskibe
+- Ledelsespraksis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Usunde fødevarer  </t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
 - Overtrædelse af ILO-konventionen
 - Kontroversielle våben
 - Flyselskaber
 - Menneskerettigheder
-- ILO-brud
-- Krænkelse af menneskerettigheder
 - Manglende klimaambitioner
 - Normer og normovertrædelser
 - Principal Adverse Impacts (PAI)
 - Involvering i tobaksprodukter
 - Levering af tjenester og faciliteter, der understøtter bosættelser
-- Levering af sikkerhedstjenester og udstyr til virksomheder i bosættelser
 - Udnyttelse af naturressourcer, særligt vand og land
 - Usunde fødevarer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder (herunder ILO-konventionen 87)
-- Brud på FN Global Compact principperne 3 og 4
 - Kontroversielle våben
 - Flyselskaber
 - Israel/Palæstina
 - Manglende klimaambitioner
-- Krænkelse af menneskerettigheder
+- Menneskerettigheder
 - Principal Adverse Impacts (PAI)
 - Engagement i tobaksprodukter
-- Levering af tjenester til settlementer
-- Levering af sikkerhedstjenester til virksomheder i settlementer
-- Udvinding af termisk kul
+- Fossile brændstoffer
 - Usunde fødevarer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder
 - Biodiversitet
 - Kontroversielle våben
 - Ejendomsopkøb
-- Fossile brændstoffer og fossil ekspansion
-- Gambling
-- Dårlig ledelsespraksis
+- Gambling
+- Ledelsespraksis
 - Skadelige miljømæssige praksisser
-- Menneskerettighedsspørgsmål
+- Menneskerettigheder
 - Brud på internationale normer og konventioner
 - Israel/Palæstina
-- Normbrud og normovertrædelser
-- Uholdbare klimaambitioner
+- Manglende klimaambitioner
 - Usunde fødevarer
 - Krydstogtskibe
-- Kul-eksponering
-- Termisk kuludvinding
 - Flyselskaber
 - Våben</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
-- Biodiversitet og miljøpåvirkninger
-- Brud på grundlæggende arbejdstagerrettigheder i strid med FN Global Compact
+- Biodiversitet
 - Ejendomsopkøb
 - Flyselskaber
 - Fossile brændstoffer
 - Gambling
 - Skadelige miljøpraksisser
-- Menneskerettigheder og relaterede problemstillinger
+- Menneskerettigheder.
 - ILO-brud
 - Overtrædelse af internationale normer og konventioner
-- Konflikter med UN Global Compact
 - Kontroversielle våben
 - Krydstogtskibe
 - Manglende klimaambitioner
 - Usunde fødevarer
-- Udtømning af termisk kul
 - Normbrud og dårlig overholdelse af normer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
-- Brud på menneskerettigheder (FN Global Compact Princip 1 og 2)
-- Kontroversielle våben (herunder hvidt fosfor)
+- Menneskerettigheder
+- Kontroversielle våben
 - Dårlig regeringsførelse
-- EU-sanktioner
-- Eksklusion af lande under internationale sanktioner eller vurderet ikke-investeringsegnede
-- Emerging Markets statsobligationer der ikke lever op til ESG-kriterier
-- Fossile brændsler (oliesk Sands, thermal coal extraction)
-- Udfordringer i forbindelse med landepolitik
-- Menneskerettighedskrænkelser
-- Norms violation relateret til miljøforurening og sikkerhedsstandarder
-- Usunde fødevarer
-- Utilstrækkelig tilgang til forvaltning og regeringsførelse</t>
+- Sortlistede lande
+- Fossile brændstoffer
+- Miljøforurening
+- Usunde fødevarer</t>
   </si>
   <si>
     <t>- Alkohol
 - Arbejdstagerrettigheder
 - Atomvåben
 - Biodiversitet
-- Brud på grundlæggende arbejdstagerrettigheder
 - Kontroversielle våben (inkl. hvidt fosfor)
 - Ejendomsopkøb
-- Fossile brændstoffer (kul og transition)
+- Fossile brændstoffer
 - Gambling
 - Miljømæssige skadelige praksisser 
 - Menneskerettigheder
@@ -498,25 +468,22 @@
 - Manglende klimaambitioner
 - Miljø
 - Usunde fødevarer
-- Våben og militært udstyr</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder og brud herpå, inkl. ILO-konventionen
+- Våben og militært udstyr
+- Støtte af bosættelser</t>
+  </si>
+  <si>
+    <t>- Arbejdestagerrettigheder
 - Biodiversitetspåvirkninger
 - Kontroversielle våben
 - Flyselskaber
-- Fossile brændstoffer og deres ekspansion
+- Fossile brændstoffer
 - Gambling
 - Skadelige miljøpraksisser
 - Menneskerettigheder og krænkelse heraf
 - Manglende klimaambitioner
-- Normovertrædelser
-- Negative påvirkninger relateret til menneskerettigheder
 - Involvering i tobaksprodukter
-- Tjenester og forsyninger, der understøtter bosættelser
-- Sikkerhedstjenester til virksomheder i bosættelser
+- Støtte til bosættelser
 - Udvinding af termisk kul
-- Eksponering for kul (over 5%)
 - Usunde fødevarer</t>
   </si>
   <si>
@@ -524,122 +491,95 @@
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder
 - Overtrædelse af ILO-konventioner
 - Kontroversielle våben
 - Flyselskaber
 - Menneskerettigheder
 - Manglende klimaambitioner
-- Krænkelse af menneskerettigheder
-- Negativ påvirkning af væsentlige faktorer (Principal Adverse Impacts - PAI)
+- Principal Adverse Impacts - PAI
 - Involvering i tobaksprodukter
-- Levering af tjenester og forsyninger til bosættelser
-- Levering af sikkerhedstjenester til virksomheder i bosættelser
+- Støtte til bosættelser
 - Usunde fødevarer</t>
   </si>
   <si>
     <t>- Alkohol
 - Arbejdstagerrettigheder
 - Biodiversitet
-- Brud på menneskerettigheder (FN Global Compact Princip 1 og 2)
 - Kontroversielle våben
 - Dårlig regeringsførelse
-- EU-sanktioner
-- Udsatte lande under internationale sanktioner
-- Dårlig ESG-performance
-- Flyselskaber
-- Fossil energi (fracking, olie sand, overgang, ekspansion)
+- Sortlistede lande
+- Flyselskaber
+- Fossile brændstoffer
 - Gambling
 - Israel-Palæstina konflikten
 - Klima- og miljøforhold
 - Krydstogtskibe
-- Uholdbar landepolitik
 - Menneskerettigheder
 - Militær udstyr
 - Miljø og sundhedsnormer
-- Olie og gas (udvinding og produktion)
-- Gambling
-- Risikovurdering af ESG-forhold
+- Gambling
 - Skat og EU's sortliste
-- Tar sands
-- Tjenester der understøtter bosættelser
-- Brug af naturressourcer (vand og land)
-- Thermal coal extraction
-- Usunde fødevarer
-- Utilfredsstillende regeringsførelse og forvaltningspraksis
-- Årsag ikke nævnt</t>
+- Støtte af bosættelser
+- Usunde fødevarer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder og relaterede brud, herunder ILO-konventionen.
-- Krænkelser af menneskerettigheder, herunder forhold relateret til FN Global Compact.
-- Involvering i produktion og handel med kontroversielle våben, såsom hvid fosfor.
-- Deltagelse i aktiviteter relateret til flyselskaber.
-- Manglende klimaambitioner og usunde fødevarer.
+- Menneskerettigheder
+- Kontroversille våben - herunder hvidt fosfor
+- Flyselskaber.
+- Manglende klimaambitioner
 - Engagement i tobaksprodukter og relaterede tjenester.
-- Inddragelse i forsyning af sikkerhedstjenester til virksomheder i besatte områder.
-- Ulemper ved brug af naturlige ressourcer til kommercielle formål.</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder
-- Produktion af kontroversielle våben, herunder hvidt fosfor
-- Involvering i flyselskab
-- Krænkelse af menneskerettigheder
-- Manglende klimatiltag
-- Uetisk produktion af tobaksprodukter
-- Levering af sikkerhedstjenester til virksomheder i omstridte områder
-- Udvinding af termisk kul
-- Distribution af usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Arbejdstagerrettigheder ifølge ILO-konventionen 87
-- Biodiversitet
-- Indvirkning på biodiversiteten
-- Kontroversielle våben
+- Støtte til virksomheder i besatte områder
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Kontroversielle våben
+- Flyselskaber
+- Menneskerettigheder
+- Manglende klimaambitioner
+- Tobak
+- Støtte til bosættelser
 - Fossile brændstoffer
-- Udvidelse af fossile brændstoffer
-- Spillespil
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Biodiversitet
+- Kontroversielle våben
+- Fossile brændstoffer
+- Gambling
 - Skadelige miljøpraksisser
 - Brud på ILO-standarder
 - Israel/Palæstina
 - Krydstogtskibe
-- Kul-eksponering over 5%
-- Arbejdsrettigheder
 - Normer
 - Principal Adverse Impacts (PAI)
-- Udrulning af termisk kul
 - Usunde fødevarer</t>
   </si>
   <si>
-    <t>- Alkohol
+    <t xml:space="preserve">- Alkohol
 - Arbejdstagerrettigheder, herunder brud på ILO-konventionen 87
 - Atomvåben og kontroversielle våben
 - Finansielle operationer der støtter bosættelser
 - Biodiversitet
-- Brud på grundlæggende arbejdstagerrettigheder og menneskerettigheder, i strid med FN Global Compact 
-- Dårlig regeringsførelse
-- EU-sanktioner og rapportering om dem
-- Ejendomsopkøb i sanktionerede lande
-- Emerging Markets statsobligationer uden ESG-overholdelse
+- Menneskerettigheder 
+- Sortlistede lande
+- Ejendomsopkøb
 - Fossil energiproduktion og ekspansion, herunder kul og olie
 - Gambling
-- God ledelsespraksis
-- Skadelige miljøpraksisser
-- Israel/Palæstina-relaterede forhold
-- Klimarelaterede forhold og manglende ambitioner
-- Normovertrædelser relateret til menneskerettigheder og miljø
+- Ledelsespraksis
+- Skadelige miljøpraksisser
+- Israel/Palæstina
+- Manglende klimaambitioner
 - Sikkerhedsforhold
 - Skat og EU's sortliste for skattepraksis
 - Usunde fødevarer
-- Vurdering af landets forvaltning og ledelsespraksis
-- Våbenhandel 
-- Ingen relevante data.</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på arbejdstagerrettigheder ifølge ILO og FN Global Compact
-- Biodiversitet og biodiversitetspåvirkninger
+- Våben </t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Biodiversitet
 - Kontroversielle våben
 - Flyselskaber
 - Fossile brændstoffer og fossil ekspansion
@@ -649,53 +589,37 @@
 - ILO-brud
 - Israel/Palæstina
 - Krydstogtskibe
-- Kul (kul-eksponering over 5%)
-- Manglende klimaambitioner
-- Normovertrædelser vedrørende menneskerettigheder
+- Manglende klimaambitioner
 - Principal Adverse Impacts (PAI)
 - Involvering i tobaksprodukter
-- Levering af tjenester og forsyninger til bosættelser
-- Levering af sikkerhedstjenester til virksomheder i bosættelser
-- Brug af naturressourcer som vand og land til forretningsformål
-- Uddragning af termisk kul
+- Støtte til bosættelser
 - Usunde fødevarer</t>
   </si>
   <si>
     <t xml:space="preserve">- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder 
 - Overtrædelser af ILO-konventioner 
 - Kontroversielle våben 
 - Flyselskaber 
 - Menneskerettigheder 
-- Normviolationer relateret til menneskerettigheder 
 - Manglende klimaambitioner 
 - Usunde fødevarer 
-- Anvendelse af naturressourcer til erhvervsmæssige formål 
-- Levering af sikkerhedstjenester til virksomheder i bosættelser 
-- Ydelse af transport og forbindelser til bosættelser </t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på arbejdstagerrettigheder (f.eks. ILO-konventionen 87)
-- Biodiversitet og dens indvirkninger
-- Brud på menneskerettigheder (f.eks. FN Global Compact Princip 1 og 2)
-- Kontroversielle våben
-- Dårlig regeringsførelse
-- EU-sanktioner
-- Lande underlagt internationale sanktioner og vurderet som ikke-investeringsegnede
-- Emerging Markets statsobligationer uden ESG-kriterier
-- Flyselskaber
-- Fossil brændstof (olie sand, kul, fossil ekspansion)
+- Støtte af bosættelser </t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Biodiversitet
+- Menneskerettigheder
+- Kontroversielle våben
+- Sortlistede lande
+- Flyselskaber
+- Fossile brændstoffer
 - Gambling
 - Skadelige miljøpraksisser
 - Israel/Palæstina
-- Landepolitik
-- Normovertrædelser relateret til miljøforurening og sundheds- og sikkerhedsstandarder
 - Principal Adverse Impacts (PAI)
 - Sikkerhedsforhold
 - Skat (herunder EU's sortliste)
-- Usunde fødevarer
-- Utilfredsstillende regeringsførelse og forvaltningspraksis</t>
+- Usunde fødevarer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
@@ -709,11 +633,9 @@
 - Skadelige miljøpraksisser
 - Israel/Palæstina
 - Krydstogtskibe
-- Kul (kul-eksponering &gt; 5%)
-- Usunde fødevarer
-- Normer
+- Usunde fødevarer
 - Principal Adverse Impacts (PAI)
-- Tjenester og forsyninger, der understøtter bosættelser, herunder transport</t>
+- Støtte til bosættelser</t>
   </si>
   <si>
     <t>Der ikke er noget relevant data.</t>
@@ -721,56 +643,43 @@
   <si>
     <t>- Brud på arbejdstagerrettigheder, herunder ILO-konventionen
 - Krænkelse af menneskerettigheder
-- Overtrædelser af FN Global Compact principper
-- Investeringer i kontroversielle våben
-- Engageret i flyselskabssektoren
+- Kontroversielle våben
+- Flyselskaber
 - Manglende klimaambitioner fra virksomheder
 - Involvering i tobaksprodukter
-- Levering af tjenester og ressourcer til bosættelser
-- Levering af sikkerhedstjenester til bosættelser
-- Udnyttelse af naturressourcer, som vand og jord, til erhvervsmæssig brug
-- Producent eller distributør af usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder
+- Støtte til bosættelser
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
 - Overtrædelse af ILO-konventioner
 - Kontroversielle våben
 - Flyselskaber
 - Krænkelse af menneskerettigheder
 - Manglende klimaambitioner
-- Normovertrædelser relateret til menneskerettigheder
-- Principielle negative virkninger (PAI)
 - Involvering i tobaksprodukter
-- Levering af tjenester, der understøtter bosættelser
-- Levering af sikkerhedstjenester til bosættelser
-- Anvendelse af naturressourcer til kommercielle formål
+- Støtte til bosættelser
 - Usunde fødevarer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
-- Brud på arbejdstagerrettigheder ifølge FN Global Compact
 - Biodiversitet og dets påvirkninger
 - Kontroversielle våben
-- Overtrædelse af EU-sanktioner
-- Ejendomsopkøb i konfliktområder
-- Emerging Markets statsobligationer uden ESG-kriterier
+- Sortlistede lande
+- Ejendomsopkøb
 - Flyselskaber
 - Fossile brændstoffer
 - Gambling
-- God ledelsespraksis
-- Skadelige miljøpraksisser
-- Menneskerettigheder og deres krænkelser
+- Ledelsespraksis
+- Skadelige miljøpraksisser
+- Menneskerettigheder
 - ILO-brud
-- Overtrædelse af internationale normer og konventioner
 - Israel/Palæstina
 - Manglende klimaambitioner
 - Usunde fødevarer
-- Thermal kuludvinding
+- Fossile brændstoffer
 - Involvering i tobaksprodukter
-- Levering af sikkerhedstjenester til virksomheder i bosættelser
-- Udnyttelse af naturressourcer til erhvervsformål
-- Transportmidler til vedligeholdelse af bosættelser</t>
+- TStøtte til bosættelser</t>
   </si>
   <si>
     <t>- Eksklusionsårsager ved investeringer i Region Hovedstaden inkluderer:
@@ -781,78 +690,65 @@
   - Flyselskaber
   - Krydstogtskibe
   - Normer
-  - Negative påvirkninger (Principal Adverse Impacts, PAI)
-  - Tjenester og forsyninger til opretholdelse af bosættelser, herunder transport</t>
+  - Principal Adverse Impacts, PAI
+  - Støtte til bosættelser</t>
   </si>
   <si>
     <t>- Brud på arbejdstagerrettigheder, herunder ILO-konventioner og FN Global Compact principper
 - Krænkelse af menneskerettigheder
 - Kontroversielle våben, herunder atomvåben og klyngevåben
-- Investeringer i flyselskaber og krydstogtskibe
-- Manglende klimaambitioner
-- Involvering i tobaksprodukter og usunde fødevarer
-- Levering af tjenester og forsyninger til bosættelser, herunder transport
-- Forsyning af sikkerhedstjenester til virksomheder i bosættelser
-- Anvendelse af naturlige ressourcer til erhvervsmæssige formål, særligt vand og land</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder
+- Flyselskaber
+- Manglende klimaambitioner
+- Tobak
+- Usunde fødevarer
+- Støtte til bosættelser</t>
+  </si>
+  <si>
+    <t>- Brud på grundlæggende arbejdstagerrettigheder
 - Biodiversitet og dens påvirkninger
-- Kontroversielle våben, herunder hvid fosfor
+- Kontroversielle våben
 - EU-sanktioner
 - Ejendomsopkøb
-- Statsobligationer fra Emerging Markets, der ikke lever op til ESG-kriterier
-- Flyselskaber
-- Fossile brændstoffer og deres ekspansion
-- Gambling
-- God ledelsespraksis
-- Skadelige miljøpraksisser
-- Menneskerettighedsspørgsmål
+- Statsobligationer, der ikke lever op til ESG-kriterier
+- Flyselskaber
+- Fossile brændstoffer
+- Gambling
+- Skadelige miljøpraksisser
+- Menneskerettigheder
 - Internationale normer og konventioner
 - Israel/Palæstina
 - Normbrud relateret til miljø
 - Manglende klimaambitioner
-- Anvendelse af naturressourcer, især vand og land, til forretningsformål
 - Krydstogtskibe
-- Kul-eksponering
 - Usunde fødevarer</t>
   </si>
   <si>
-    <t>- Arbejdstagerrettigheder
-- Biodiversitet
+    <t>- Biodiversitet
 - Brud på grundlæggende arbejdstagerrettigheder
 - Kontroversielle våben
 - Fossil brændstof og ekspansion
 - Gambling
 - Skadelige miljøpraksisser
-- Menneskerettigheder
 - ILO-brud
 - Israel/Palæstina
 - Krydstogtskibe
-- Kul (kul-eksponering &gt; 5%)
 - Manglende klimaambitioner
 - Krænkelse af menneskerettigheder
-- Tobacco Products Retail (produktinddragelse)
-- Adverse impacts på menneskerettigheder og normer
-- Levering af tjenester til settlements
-- Levering af sikkerhedstjenester til virksomheder i settlements
+- Tobak
+- Støtte til virksomheder i besatte områder
 - Brug af naturressourcer (vand og land)
-- Udsigt til varme kul
 - Usunde fødevarer</t>
   </si>
   <si>
-    <t>- Arbejdstagerrettigheder og brud herpå, bl.a. ifølge ILO og FN Global Compact
+    <t>- Brud på grundlæggende arbejdstagerrettigheder
 - Biodiversitet og skadelige miljøpraksisser
-- Kontroversielle våben, herunder hvid fosfor
-- Ejendomsoverdragelser og landepolitik
+- Kontroversielle våben
+- Landepolitik
 - Investeringer i statsobligationer fra emerging markets uden ESG-kriterier
-- Deltagelse i eller støtte til flyselskaber
-- Fossile brændstoffer og kuludvinding, herunder transition og eksponering
-- God ledelsespraksis og normovertrædelser på arbejdsmarkedet
-- Menneskerettigheder og generelle human rights issues
-- Miljømæssige krav og relaterede normer
-- Adverse impacts, herunder principal adverse impacts (PAI)
+- Flyselskaber
+- Fossile brændstoffer
+- Menneskerettigheder
+- Miljø
 - Usunde fødevarer og deres indvirkning på sundhed</t>
   </si>
   <si>
@@ -862,9 +758,8 @@
 - Kontroversielle våben
 - Fossile brændstoffer
 - Udvidelse af fossile ressourcer
-- Spilaktiviteter
-- Skadelige miljøpraksisser
-- ILO-brud
+- Gambling
+- Skadelige miljøpraksisser
 - Israel/Palæstina
 - Krydstogtskibe
 - Kul (kul-eksponering over 5%)
@@ -876,9 +771,7 @@
   <si>
     <t>- Arbejdstagerrettigheder, herunder brud på ILO-konventioner
 - Biodiversitet
-- Brud på grundlæggende arbejdstagerrettigheder, stridende imod FN Global Compact principper
-- Kontroversielle våben, herunder hvid fosfor
-- Ejendomsopkøb relateret til internationale normer
+- Ejendomsopkøb
 - Involvering i produktion af hvidt fosfor
 - Israel/Palæstina
 - Konflikter med UN Global Compact principker
@@ -887,19 +780,17 @@
 - Menneskerettighedskrænkelser
 - Skadelige miljøpraksisser
 - Manglende klimaambitioner
-- Dårlig ledelsespraksis
 - Normbrud og normovertrædelser</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
 - Biodiversitet
 - Brud på grundlæggende arbejdstagerrettigheder (FN Global Compact princip 3 og 4)
-- Kontroversielle våben (herunder hvidt fosfor)
+- Kontroversielle våben
 - Ejendomsopkøb
 - Flyselskaber
 - Fossile brændstoffer
 - Gambling
-- God ledelsespraksis
 - Skadelige miljøpraksisser
 - Menneskerettigheder
 - ILO-brud
@@ -922,7 +813,6 @@
 - ILO-brud
 - Israel/Palæstina
 - Krydstogtskibe
-- Kul (kul-eksponering &gt; 5%)
 - Menneskerettigheder
 - Normer
 - Principal Adverse Impacts (PAI)
@@ -932,25 +822,22 @@
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
-- Brud på grundlænde arbejdstagerrettigheder
+- Brud på grundlæggende arbejdstagerrettigheder
 - Kontroversielle våben
 - Flyselskaber
 - Menneskerettigheder
 - ILO-brud
 - Manglende klimaambitioner
 - Normovertrædelser
-- Principielle negative virkninger (PAI)
 - Involvering i tobaksprodukter
-- Tjenester og forsyninger til vedligeholdelse af beboelser, herunder transport
-- Levering af sikkerhedstjenester til virksomheder i beboelser
+- Støtte til virksomheder i besatte områder
 - Anvendelse af naturressourcer, især vand og land, til forretningsformål
 - Usunde fødevarer</t>
   </si>
   <si>
-    <t>- Arbejdstagerrettigheder
-- Biodiversitet
+    <t>- Biodiversitet
 - Brud på arbejdstagerrettigheder
-- Kontroversielle våben (herunder hvidt fosfor)
+- Kontroversielle våben
 - Ejendomsopkøb
 - Fossil energi (inkl. kul-eksponering)
 - Gambling
@@ -959,15 +846,14 @@
 - Menneskerettighedsproblemer
 - ILO-brud
 - Internationale normer og konventioner
-- Konflikter relateret til Israel/Palæstina
+- Israel/Palæstina
 - Manglende klimaambitioner
 - Usunde fødevarer
 - Forsyning af tjenester og forsyninger til etablering af bosættelser</t>
   </si>
   <si>
     <t>- Alkohol
-- Arbejdstagerrettigheder
-- Arbejdstagerrettigheder (inkl. ILO-konventionen 87)
+ (inkl. ILO-konventionen 87)
 - Biodiversitet og dens påvirkninger
 - Brud på grundlæggende arbejdstagerrettigheder (strider imod FN Global Compact princip 3 og 4)
 - Kontroversielle våben
@@ -977,25 +863,19 @@
 - Flyselskaber
 - Fossile brændstoffer (fracking og transition)
 - Gambling
-- God ledelsespraksis
-- Skadelige miljøpraksisser
-- Menneskerettigheder og relaterede emner
+- Skadelige miljøpraksisser
+- Menneskerettigheder
 - ILO-brud
-- Integreret olie- og gasproduktion
+- Integreret olie og gas
 - Internationale normer og konventioner
-- Klimaforhold og omstilling
+- Klimarelaterede forhold
 - Konflikt med UN Global Compact princip nr. 10
 - Krydstogtskibe
-- Kul (kul-eksponering &gt; 5%)
-- Manglende klimaambitioner
-- Miljøet
-- Normbrud og normovertrædelser
-- Olieudvinding og -produktion
+- Miljø
+- Olie- og gasudvinding samt produktion af disse
 - Principal Adverse Impacts (PAI)
-- Tobaksprodukter (detailhandel)
-- Tjenester til understøttelse af beboelser (transport mv.)
-- Forsyning af sikkerhedstjenester til virksomheder i beboelser
-- Termisk kuludvinding
+- Tobak
+- Støtte til virksomheder i besatte områder
 - Usunde fødevarer
 - Våben</t>
   </si>
@@ -1008,14 +888,14 @@
 - Flyselskaber
 - Menneskerettigheder
 - ILO-brud
-- Krænkelse af menneskerettigheder
-- Manglende klimaambitioner
-- Normovertrædelser
+- Menneskerettigheder
+- Manglende klimaambitioner
+- Normer
 - Principal Adverse Impacts (PAI)
-- Involvering i tobaksprodukter
-- Tjenester og forsyninger knyttet til opretholdelse af bosættelser
-- Levering af sikkerhedstjenester og -udstyr til virksomheder i bosættelser
-- Udnyttelse af naturressourcer, især vand og jord
+- Tobak
+- Støtte til tjenester og forsyninger i besættelsesområder
+- Støtte til sikkerhedstjenester og udstyr i besættelsesområder
+- Udnyttelse af naturressourcer, især vand og jord, til forretningsbrug, til forretningsbrug, til forretningsbrug
 - Usunde fødevarer</t>
   </si>
   <si>
@@ -1028,7 +908,7 @@
 - Fossile brændstoffer
 - Gambling
 - Skadelige miljøpraksisser
-- Menneskerettighedsspørgsmål
+- Menneskerettigheder
 - ILO-brud
 - Internationale normer og konventioner
 - Konflikt med UN Global Compact princip nr. 10
@@ -1037,13 +917,13 @@
 - Usunde fødevarer
 - Thermal coal extraction
 - Principal Adverse Impacts (PAI)
-- Normbrud og normviolationer</t>
+- Normer og normbrud</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
 - Brud på arbejdstagerrettigheder
 - Biodiversitet
-- Kontroversielle våben (herunder hvidt fosfor)
+- Kontroversielle våben
 - Ejendomsopkøb og involvering i besættelsesområder
 - Flyselskaber
 - Fossile brændstoffer (inkl. kul-eksponering)
@@ -1074,7 +954,7 @@
 - Skadelige miljøpraksisser
 - Israel/Palæstina
 - Krydstogtskibe
-- Kulkraft (kul-eksponering &gt; 5%)
+- Kul (kul-eksponering &gt; 5%)
 - Usunde fødevarer
 - Overtrædelser af ILO-konventionen
 - Primære negative påvirkninger (PAI)
@@ -1082,33 +962,32 @@
   </si>
   <si>
     <t>- Arbejdstagerrettigheder: Overtrædelser af grundlæggende rettigheder i arbejdet.
-- Brud på ILO-konventioner, især konvention 87.
+- Brud på ILO-konventioner, bl.a. konvention 87
 - Overtrædelser der strider imod FN Global Compact principper (3 og 4).
 - Kontroversielle våben: Investeringer relateret til produktion og salg.
-- Flyselskaber: Involvering med flyselskaber, der ikke opfylder etiske standarder.
-- Krænkelse af menneskerettigheder: Uretfærdig behandling af individer.
-- Normovertrædelser: Handlinger der ikke stemmer overens med internationale normer.
-- Manglende klimaambitioner: Utilstrækkelige tiltag mod klimaforandringer.
-- Usunde fødevarer: Engagement i produktion eller salg af usunde kostprodukter.
-- Tjenester der understøtter bosættelser: Involvering i serviceleverancer til omstridte områder.
+- Flyselskaber
+- Menneskerettigheder
+- Normer
+- Manglende klimaambitioner
+- Usunde fødevarer
+- Støtte til tjenester og forsyninger i besættelsesområder
 - Leverance af sikkerhedstjenester til virksomheder i bosættelser: Investeringer der bidrager til konfliktområder.</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
 - Biodiversitet
 - Brud på grundlæggende arbejdstagerrettigheder
-- Kontroversielle våben (herunder hvid fosfor)
+- Kontroversielle våben
 - Ejendomsopkøb
-- Indflydelse fra flyselskaber
+- Flyselskaber
 - Fossil brændstof
 - Gambling
 - Skadelige miljøpraksisser
-- Menneskerettigheder og tilknyttede problemstillinger
+- Menneskerettigheder
 - ILO-brud
 - Overtrædelse af internationale normer og konventioner
 - Overholdelse af internationale sanktioner og forretningsetik
-- Involvering i atomvåben
-- Krænkelse af menneskerettigheder
+- Atomvåben
 - Manglende klimaambitioner
 - Principal Adverse Impacts (PAI)
 - Sikkerhedsforhold
@@ -1121,17 +1000,16 @@
     <t>- Arbejdstagerrettigheder
 - Brud på grundlæggende arbejdstagerrettigheder
 - Biodiversitet
-- Kontroversielle våben (herunder hvid fosfor)
+- Kontroversielle våben
 - EU-sanktioner
 - Ejendomsopkøb
 - Statsobligationer fra emerging markets uden ESG-kriterier
 - Flyselskaber
-- Fossile brændstoffer og deres ekspansion
+- Fossile brændstoffer
 - Dårlig ledelsespraksis
 - Skadelige miljøpraksisser
-- Menneskerettighedsspørgsmål
+- Menneskerettigheder
 - ILO-brud
-- Overholdelse af internationale normer og konventioner
 - Landepolitik
 - Manglende klimaambitioner
 - Miljømæssige normbrud
@@ -1139,7 +1017,8 @@
 - Tjenester og forsyninger, der understøtter opretholdelse af bosættelser
 - Udnyttelse af naturressourcer, især vand og land
 - Termisk kul og dets udvinding
-- Usunde fødevarer</t>
+- Usunde fødevarer
+- Kul (kul-eksponering &gt; 5%</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
@@ -1158,14 +1037,12 @@
   <si>
     <t>- Arbejdstagerrettigheder og brud på internationale normer
 - Atomvåben og kontroversielle våben
-- Miljømæssige og biodiversitetsrelaterede problemstillinger
-- Menneskerettigheder og humanitære forhold
+- Miljø og biodiversitet
+- Menneskerettigheder
 - Negative effekter på klima og fossile brændstoffer
-- Ejendomsoverdragelse og involvering i problematiske sektorer som gambling og krydstogtskibe
-- Usunde fødevarer og skadelig ledelsespraksis
-- Overtrædelse af FN Global Compact principper
-- Overholdelse af internationale sanktioner og etik i forretningspraksis
-- Normbrud relateret til miljø og menneskerettigheder</t>
+- Ejendomsopkøb
+- Usunde fødevarer
+- Overtrædelse af FN Global Compact principper</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
@@ -1191,12 +1068,11 @@
 - Overtrædelse af FN Global Compact principper 3 og 4
 - Kontroversielle våben
 - Flyselskaber
-- Menneskerettighedskrænkelser
+- Menneskerettigheder
 - ILO-brud
 - Manglende klimaambitioner
-- Krænkelse af menneskerettigheder
 - Principal Adverse Impacts (PAI)
-- Involvering i tobaksprodukter
+- Tobak
 - Tilvejebringelse af serviceydelser til opretholdelse af bosættelser, herunder transport
 - Levering af sikkerhedstjenester til virksomheder i bosættelser
 - Anvendelse af naturressourcer som vand og land til erhvervsmæssige formål
@@ -1206,17 +1082,16 @@
   <si>
     <t>- Arbejdstagerrettigheder, herunder overtrædelser af ILO-konventioner.
 - Brud på grundlæggende rettigheder for arbejdstagere, i strid med FN Global Compact principper.
-- Involvering i kontroversielle våben.
-- Investment i flyselskaber.
-- Krænkelse af menneskerettigheder generelt.
+- Kontroversielle våben
+- Flyselskaber
+- Menneskerettigheder
 - Manglende indsats for klimaspørgsmål.
-- Normovertrædelser relateret til menneskerettigheder.
 - Negative konsekvenser for sociale forhold (Principal Adverse Impacts - PAI).
-- Involvering i tobaksprodukter som detailhandel.
+- Tobak
 - Levering af tjenesteydelser og forsyninger til bosættelser.
 - Forsyning af sikkerhedstjenester til virksomheder i bosættelser.
 - Utilstrækkelig forvaltning af naturressourcer (vand og land) i erhvervssammenhæng.
-- Tilbud af usunde fødevarer.</t>
+- Usunde fødevarer</t>
   </si>
   <si>
     <t>- Alkohol
@@ -1224,13 +1099,13 @@
 - Arbejdstagerrettigheder relateret til ILO-konventionen 87
 - Biodiversitet og dens påvirkninger
 - Brud på grundlæggende arbejdstagerrettigheder (FN Global Compact principper 3 og 4)
-- Kontroversielle våben, herunder hvid fosfor
+- Kontroversielle våben
 - Ejendomsopkøb
 - Flyselskaber
 - Fossile brændstoffer, herunder kul-udvidelse, fracking og overgangsproblematikker
 - Gambling
 - Skadelige miljøpraksisser
-- Menneskerettighedsproblematikker
+- Menneskerettigheder
 - ILO-brud
 - Integreret olie og gas
 - Internationale normer og konventioner
@@ -1244,7 +1119,7 @@
 - Normbrud relateret til miljø og menneskerettigheder
 - Olie og gas
 - Negative konsekvenser for mennesker og miljø 
-- Provision af tjenester og infrastruktur til opretholdelse af bosættelser
+- Støtte til tjenester og infrastruktur til opretholdelse af bosættelser
 - Termisk kul og dets udvinding
 - Usunde fødevarer
 - Våben</t>
@@ -1258,22 +1133,21 @@
 - Flyselskaber
 - Fossile brændstoffer og kuludvidelse
 - Gambling
-- God ledelsespraksis
-- Skadelige miljøpraksisser
-- Problemer med menneskerettigheder
+- Skadelige miljøpraksisser
+- Menneskerettigheder
 - ILO-brud
 - Normbrud i forhold til internationale konventioner
 - Involvering i kritisk produktion og aktiviteter
-- Konflikter relateret til Israel/Palæstina
+- Israel/Palæstina
 - Manglende klimaambitioner
 - Udnyttelse af naturressourcer, specielt vand og jord
 - Usunde fødevarer
-- Værktøjer til støtte for vedligeholdelse af bosættelser</t>
+- Støtte til tjenester og forsyninger i besættelsesområder, herunder transport</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
 - ILO-konventionen 87
-- EU sanktioner
+- EU-sanktioner
 - Fossil fuels
 - Kul med eksponering over 5%
 - Omsætning fra ukonventionel olie og gas, termisk kul eller arktisk boring over 5%
@@ -1282,7 +1156,7 @@
 - Israel/Palæstina
 - Sikkerhedsrisici
 - Ruslands invasion af Ukraine
-- Norms
+- Normer
 - SPU (Statens Pensionsfond)</t>
   </si>
   <si>
@@ -1296,7 +1170,6 @@
 - Flyselskab 
 - Fossile brændstoffer og fossil ekspansion 
 - Gambling 
-- God ledelsespraksis 
 - Skadelige miljøpraksisser 
 - Menneskerettighedsproblemer 
 - ILO-brud 
@@ -1335,7 +1208,6 @@
     <t>- Alkohol
 - Arbejdstagerrettigheder
 - Biodiversitet
-- Brud på grundlæggende menneskerettigheder
 - Kontroversielle våben
 - Dårlig regeringsførelse
 - EU-sanktioner
@@ -1357,7 +1229,7 @@
 - Olie og gasudvinding
 - Gambling
 - Principal Adverse Impacts (PAI)
-- Tobaksprodukter detailhandel
+- Tobak
 - Risikovurdering af ESG-forhold
 - Sikkerhedsforhold
 - Skat og EU's sortliste
@@ -1383,7 +1255,6 @@
 - Ikke-investeringsegnede lande
 - Fossile brændstoffer (kul, olie, gas)
 - Gambling
-- God ledelsespraksis
 - Skadelige miljøpraksisser
 - Menneskerettigheder
 - Internationale normer og konventioner
@@ -1399,107 +1270,100 @@
   <si>
     <t>- Brud på arbejdstagerrettigheder
 - Overtrædelser af ILO-konventioner
-- Menneskerettighedskrænkelser
-- Inddragelse i kontroversielle våben
+- Kontroversielle våben
 - Flyselskaber
 - Manglende overholdelse af FN Global Compact principper
-- Krænkelse af menneskerettigheder
-- Tidligere investeringer i tobaksprodukter
-- Betydelig negativ indvirkning på menneskerettigheder
-- Manglende klimaambitioner
-- Engagement i usunde fødevarer
+- Menneskerettigheder
+- Tobak
+- Manglende klimaambitioner
+- Usunde fødevarer
 - Inddragelse i termisk kuludvinding
-- Levering af tjenester til beskytning af beskedne bosættelser
+- Tjenester til brug i besatte områder
 - Levering af sikkerhedsudstyr og materialer til virksomheder i bosættelser</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
 - Brud på arbejdstagerrettigheder i overensstemmelse med FN Global Compact
-- Biodiversitet og tilknyttede miljøpåvirkninger
-- Kontroversielle våben
-- Ejendomsovertagelse
+- Biodiversitet
+- Kontroversielle våben
+- Ejendomsopkøb
 - Flyselskaber
 - Fossile brændstoffer
 - Gambling
 - Skadelige miljøpraksisser
-- Menneskerettigheder og relaterede spørgsmål
+- Menneskerettigheder
 - Overtrædelser af ILO-konventioner
 - Internationale normer og konventioner
 - Manglende klimaambitioner
 - Usunde fødevarer
-- Krænkelse af menneskerettigheder
 - Udstyr og tjenester til brug i besatte områder
 - Levering af sikkerhedstjenester og udstyr til virksomheder i besatte områder
 - Udvinding af termisk kul
-- Involvering i tobaksprodukter
+- Tobak
 - Krydstogtskibe
 - Våben</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder og brud herpå, herunder ILO-konventioner
-- Krænkelse af menneskerettigheder
 - Kontroversielle våben
 - Overholdelse af EU-sanktioner
-- Forhold til flyselskaber
-- Investeringer i fossile brændstoffer og transition til bæredygtige alternativer
+- Flyselskaber
+- Fossil brændstof og transition
 - Kul-eksponering over 5%
 - Manglende klimaambitioner
 - Omsætning fra ukonventionel olie og gas samt arktisk boring over 5%
-- Normovertrædelser relateret til menneskerettigheder
-- Samsyn med FN Global Compact principper
-- Forhold til Israel/Palæstina 
+- Menneskerettigheder
+- Israel/Palæstina 
 - Ruslands invasion af Ukraine
-- Usunde fødevarer og produkter relateret til tobak
+- Usunde fødevarer
 - Sikkerhedsrisici ved investeringer i besatte områder
-- Generel virksomhedsforvaltningsetik og internationale sanktioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Arbejdstagerrettigheder og relaterede brud 
+- Internationale sanktioner og forretningsetik</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder og relaterede brud 
 - Biodiversitet og skader på biodiversitet 
 - Brud på arbejdstagerrettigheder ifølge FN Global Compact 
 - Kontroversielle våben 
-- Investeringer i flyselskaber 
+- Flyselskaber 
 - Fossile brændstoffer og fossil ekspansion 
-- Spil og hasard 
+- Gambling 
 - Skadelige miljøpraksis 
-- Krænkelse af menneskerettigheder 
+- Menneskerettigheder 
 - Kul og eksponering for kul 
 - Manglende klimaambitioner 
-- Normovertrædelser vedrørende menneskerettigheder 
 - Negative primære konsekvenser (PAI) 
-- Investeringer i tobaksprodukter 
+- Tobak 
 - Tjenester, der støtter bosættelser 
 - Levering af sikkerhedstjenester til virksomheder i bosættelser 
 - Udnyttelse af naturressourcer, især vand og land 
-- Udtvungne fødevarer </t>
+- Usunde fødevarer 
+- Krydstogtskibe</t>
   </si>
   <si>
     <t>- Alkohol
 - Kontroversielle våben
 - Flyselskaber
-- Fossile brændstoffer (overordnet)
+- Fosstil brændstof
 - Transition fra fossile brændstoffer
 - Integreret olie og gas
 - Klimarelaterede forhold
-- Miljømæssige påvirkninger
-- Etiske normer (generelt)
-- Etiske normer relateret til fossile brændstoffer
+- Miljø
 - Olie
 - Principielle negative påvirkninger (PAI)
 - Tjenester og forsyninger relateret til opretholdelse af bosættelser, inklusiv transport</t>
   </si>
   <si>
     <t>- Flyselskaber
-- Israel/Palestina 
+- Israel/Palæstina 
 - Menneskerettigheder 
 - Principal Adverse Impacts (PAI)
 - Levering af tjenester og forsyninger, der støtter opretholdelsen af bosættelser, herunder transport 
-- Udtvinding af termisk kul 
+- Udvinding af termisk kul 
 - Usunde fødevarer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
-- Biodiversitetspåvirkninger
+- Biodiversitet
 - Kontroversielle våben
 - Fossile brændstoffer
 - Udvidelse af fossile brændstoffer
@@ -1520,11 +1384,10 @@
 - Dårlig regeringsførelse og manglende overholdelse af internationale normer
 - EU-sanktioner og involvering i sanktionerede lande
 - Investeringer i fossil energi, herunder kul, olie og gas
-- Menneskerettighedskrænkelser og normbrud
+- Menneskerettigheder
 - Skat og skattemæssige problematikker
 - Low ESG performance og manglende klimaambitioner
-- Landeeksklusion baseret på investeringsegnede vurderinger
-- Kontroversielle aktiviteter som flyselskaber og krydstogtskibe
+- Flyselskaber
 - Normovertrædelser associeret med miljøforurening og sundhedsstandarder
 - Ingen relevant data.</t>
   </si>
@@ -1532,12 +1395,12 @@
     <t>- Arbejdstagerrettigheder og brud på internationale normer.
 - Miljømæssige konsekvenser og skader på biodiversitet.
 - Involvering i kontroversielle våben, herunder hvidt fosfor.
-- Ejendomsopkøb og deraf følgende juridiske og etiske problemstillinger.
+- Ejendomsopkøb
 - Investeringer i emerging markets, der ikke opfylder ESG-kriterier.
 - Aktiviteter relateret til fossil energi, herunder kuludvinding og fracking.
-- Problematikker vedrørende menneskerettigheder og human rights issues.
+- Menneskerettigheder
 - Negative konsekvenser for klimaet og manglende klimaambitioner.
-- Usunde fødevarer og gambling som eksklusionsårsager.</t>
+- Usunde fødevarer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
@@ -1547,16 +1410,15 @@
 - Ejendomsopkøb
 - Fossile brændstoffer (kul, olie, gas)
 - Miljømæssig praksis
-- Krænkelse af menneskerettigheder
+- Menneskerettigheder
 - Involvering i hvidt fosfor produktion
 - Manglende klimaambitioner
 - Usunde fødevarer
 - Utilfredsstillende ledelsespraksis
 - Konflikter med internationale normer og konventioner
-- Uretfærdig brug af naturressourcer
+- Anvendelse af naturressourcer (vand og land) til forretningsformål
 - Tjenester, der understøtter opretholdelse af bosættelser
-- Levering af sikkerhedstjenester til bosættelser
-- Indflydelse på sundhed og velvære gennem produkter og tjenester</t>
+- Levering af sikkerhedstjenester til bosættelser</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder, herunder brud på ILO-konventioner og FN Global Compact principper.
@@ -1568,15 +1430,14 @@
 - Deltagelse i fossile brændstoffer, herunder kul og fossil brændstofudvidelse.
 - Manglende overholdelse af internationale normer, især relateret til menneskerettigheder.
 - Problemer med god ledelsespraksis og normbrud.
-- Engagement i usunde fødevarer og relaterede produkter.
-- Ikke-overholdelse af principper om menneskerettigheder og klimapolitik.</t>
+- Usunde fødevarer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
 - Brud på arbejdstagerrettigheder (f.eks. ILO-konventionen 87)
 - Biodiversitetsimplikationer
 - Kontroversielle våben
-- EU sanktioner
+- EU-sanktioner
 - Flyselskaber
 - Fossil energi (Transition og Fuel)
 - Skadelige miljøpraksisser
@@ -1584,13 +1445,13 @@
 - ILO-brud
 - Internationale sanktioner og forretningsetik
 - Israel/Palæstina
-- Krænkelse af menneskerettigheder
+- Menneskerettigheder
 - Kul (kul-eksponering &gt; 5%)
 - Manglende klimaambitioner
 - Normovertrædelser
 - Omsætning fra ukonventionel olie og gas, termisk kul eller arktisk boring &gt;5%
 - Principal Adverse Impacts (PAI)
-- Involvering i tobaksprodukter
+- Tobak
 - Ruslands invasion af Ukraine
 - Sikkerhedsforhold
 - Levering af tjenester og forsyninger til bosættelser
@@ -1601,7 +1462,7 @@
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
-- Biodiversitet og dens konsekvenser
+- Biodiversitet
 - Brud på grundlæggende arbejdstagerrettigheder
 - Kontroversielle våben
 - EU-sanktioner
@@ -1611,13 +1472,13 @@
 - Fossile brændstoffer
 - Gambling
 - Skadelige miljøpraksisser
-- Menneskerettighedsproblemer
+- Menneskerettigheder
 - ILO-overtrædelser
 - Overtrædelse af internationale normer og konventioner
 - Konflikt med UN Global Compact princip nr. 10
 - Krydstogtskibe
 - Manglende klimaambitioner
-- Normbrud og normovertrædelser
+- Normer
 - Negative påvirkninger på principper 
 - Tjenester og forsyninger til opretholdelse af bosætninger
 - Udnyttelse af naturressourcer, især vand og land
@@ -1633,9 +1494,9 @@
 - Flyselskaber
 - Udvidelse af kulbaserede energikilder og fossil brændstofudvinding
 - Skadelig miljøpraksis
-- Problemer med menneskerettigheder
-- Investeringer relateret til Israel/Palæstina
-- Klimaændringer og tilknyttede risici
+- Menneskerettigheder
+- Israel/Palæstina
+- Klima
 - Investeringer i krydstogtskibe
 - Eksponering overfor kul og termisk kul (&gt;5%)
 - Omsætning fra ukonventionel olie og gas samt arktisk boring (&gt;5%)
@@ -1657,7 +1518,7 @@
 - Israel/Palæstina
 - Krydstogtskibe
 - Kul-eksponering over 5%
-- Uhensigtsmæssige fødevarer
+- Usunde fødevarer
 - Normer
 - Principal Adverse Impacts (PAI)
 - Termisk kuludvinding</t>
@@ -1667,16 +1528,16 @@
 - Brud på arbejdstagerrettigheder (inkl. ILO-konventionen 87)
 - Biodiversitet
 - Brud på FN Global Compact principperne 3 og 4
-- Kontroversielle våben (herunder hvid fosfor)
+- Kontroversielle våben
 - EU-sanktioner
 - Ejendomsopkøb
 - Emerging Markets statsobligationer, som ikke lever op til ESG-kriterier
 - Flyselskaber
 - Fossil energiproduktion (kuludvidelse og fossil brændstof)
 - Skadelig miljøpraksis
-- Menneskerettighedsspørgsmål
+- Menneskeretttigheder
 - Overtrædelser af internationale normer og konventioner
-- Klimagevinst og manglende klimaambitioner
+- Manglende klimaambitioner
 - Konflikt med UN Global Compact princip nr. 10
 - Landepolitik
 - Anvendelse af naturressourcer, især vand og land
@@ -1689,14 +1550,14 @@
     <t>- Arbejdstagerrettigheder
 - Brud på arbejdstagerrettigheder
 - Biodiversitet
-- Kontroversielle våben
+- Kontroversielle våben, herunder hvidt fosfor, herunder hvidt fosfor, herunder hvidt fosfor
 - EU-sanktioner
 - Ejendomsopkøb
 - Emerging Markets statsobligationer uden ESG-kriterier
 - Flyselskaber
 - Fossil brændstofudvidelse
 - Skadelige miljøpraksisser
-- Menneskerettighedsproblemer
+- Menneskerettigheder
 - Internationale normer og konventioner
 - Konflikter med UN Global Compact principper
 - Kul eksponering over 5%
@@ -1704,11 +1565,8 @@
 - Manglende klimaambitioner
 - Normbrud relateret til miljø
 - Usunde fødevarer
-  - Oplevelse af brud på menneskerettigheder
   - Negative miljøpåvirkninger
-  - Dårlige arbejdsforhold og praksisser
-  - Overtrædelser af internationale normer
-  - Engagement i kontroversielle aktiviteter og våbenproduktion</t>
+  - Dårlige arbejdsforhold og praksisser</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder og relaterede brud (f.eks. ILO-konventionen 87)
@@ -1728,9 +1586,9 @@
 - Biodiversitet og negative konsekvenser for miljøet, herunder skadelige miljøpraksisser og manglende klimaambitioner.
 - Investeringer i kontroversielle våben og flyselskaber.
 - EU-sanktioner
-- Ejendomsopkøb og involvering i krænkende virksomhedsaktiviteter.
+- Ejendomsopkøb
 - Engagement i emerging markets statsobligationer, der ikke lever op til ESG-kriterier.
-- Deltagelse i gambling, usunde fødevarer og fossil fuel industri.
+- Gambling
 - Tilvejebringelse af sikkerhedsydelser til virksomheder i konfliktområder.
 - Anvendelse af naturressourcer, især vand og land, uden hensyntagen til bæredygtighed.
 - Involvering i tobaksprodukter og relaterede markeder.</t>
@@ -1741,7 +1599,7 @@
 - Atomvåben
 - Kontroversielle våben, herunder hvidt fosfor
 - Flyselskaber
-- Fossil energi og overgang til grøn energi
+- Fossil energi
 - Produktion af fossile brændstoffer
 - Gambling
 - Negativ påvirkning på klima og miljø
@@ -1757,30 +1615,25 @@
 - Biodiversitet og dens påvirkninger
 - Kontroversielle våben, herunder hvidt fosfor
 - Overholdelse af EU-sanktioner
-- Ejendomsopkøb i konfliktområder
+- Ejendomopkøb
 - Investeringer i emerging markets statsobligationer uden ESG-overholdelse
-- Flyselskaber med negative miljøpåvirkninger
+- Flyselskaber
 - Fossil energi og kul ekspansion
 - Gambling
-- God ledelsespraksis
 - Skadelig miljøpraksis
-- Menneskerettighedsproblemer
+- Menneskerettigheder
 - ILO-brud og brud på internationale normer
 - Konflikter med UN Global Compact principper
-- Krydstogtskibe og deres miljøeffekter
+- Krydstogtskibe
 - Kul-eksponering over 5%
-- Landepolitik uden bæredygtige tilgange
+- Landepolitik
 - Manglende klimaambitioner
 - Anvendelse af naturlige ressourcer på problematiske måder
 - Usunde fødevarer</t>
   </si>
   <si>
-    <t>- Eksklusionsårsager omfatter: 
-  - Kontroversielle våben
+    <t xml:space="preserve">  - Kontroversielle våben
   - Principale negative påvirkninger (PAI)
-- Overordnede årsager for eksklusion:
-  - Etik
-  - Sociale ansvar
   - Miljømæssig bæredygtighed</t>
   </si>
   <si>
@@ -1805,10 +1658,9 @@
     <t>- Overtrædelser af arbejdstagerrettigheder, herunder ILO-konventionen.
 - Brud på grundlæggende arbejdstagerrettigheder i strid med FN Global Compact principper.
 - Involvering i kontroversielle våben.
-- Investeringer i flyselskaber.
-- Krænkelse af menneskerettigheder og normer.
-- Manglende engagement i klimaindsats.
-- Negativ indvirkning på menneskerettigheder.
+- Flyselskaber
+- Menneskerettigheder.
+- Manglende klimaambitioner
 - Engagement i usunde fødevareprodukter.
 - Inddragelse i forsyning af sikkerhedstjenester til virksomheder i besatte områder.
 - Anvendelse af naturlige ressourcer, især vand og land, til erhvervsmæssige formål.</t>

--- a/src/ai_text_corrected.xlsx
+++ b/src/ai_text_corrected.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="210">
   <si>
     <t>Kommune</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Resumé</t>
   </si>
   <si>
+    <t>Resumé_renset</t>
+  </si>
+  <si>
     <t>Rudersdal</t>
   </si>
   <si>
@@ -323,6 +326,12 @@
   </si>
   <si>
     <t>Lejre</t>
+  </si>
+  <si>
+    <t>Samsø</t>
+  </si>
+  <si>
+    <t>Læsø</t>
   </si>
   <si>
     <t>- Alkohol
@@ -1662,6 +1671,347 @@
 - Menneskerettigheder.
 - Manglende klimaambitioner
 - Engagement i usunde fødevareprodukter.
+- Inddragelse i forsyning af sikkerhedstjenester til virksomheder i besatte områder.
+- Anvendelse af naturlige ressourcer, især vand og land, til erhvervsmæssige formål.</t>
+  </si>
+  <si>
+    <t>Der er ike noget relevant data.</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder, herunder brud på ILO-konventioner og FN Global Compact principper
+- Biodiversitet og skadelige miljøpraksisser
+- Kontroversielle våben
+- Ejendomsopkøb
+- Flyselskaber
+- Fossile brændstoffer, herunder kul og fossil ekspansion
+- Gambling
+- Menneskerettigheder
+- Usunde fødevarer
+- Manglende klimaambitioner
+- Israel/Palæstina
+- Krydstogtsskibe
+- Ledelsespraksis
+- Israel/Palæstina
+- Krydstogtsskibe
+- Ledelsespraksis</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Kontroversielle våben
+- Flyselskaber
+- Israel/Palæstina
+- Manglende klimaambitioner
+- Menneskerettigheder
+- Principal Adverse Impacts (PAI)
+- Tobak
+- Fossile brændstoffer
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Alkohol
+- Arbejdstagerrettigheder
+- Atomvåben
+- Biodiversitet
+- Kontroversielle våben (inkl. hvidt fosfor)
+- Ejendomsopkøb
+- Fossile brændstoffer
+- Gambling
+- Miljømæssige skadelige praksisser 
+- Menneskerettigheder
+- ILO-brud
+- Internationale normer og sanktioner 
+- Manglende klimaambitioner
+- Miljø
+- Usunde fødevarer
+- Våben og militært udstyr
+- Støtte af bosættelser
+- Støtte af bosættelser</t>
+  </si>
+  <si>
+    <t>- Arbejdestagerrettigheder
+- Biodiversitetspåvirkninger
+- Kontroversielle våben
+- Flyselskaber
+- Fossile brændstoffer
+- Gambling
+- Skadelige miljøpraksisser
+- Menneskerettigheder og krænkelse heraf
+- Manglende klimaambitioner
+- Tobak
+- Støtte til bosættelser
+- Udvinding af termisk kul
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder og relaterede brud, herunder ILO-konventionen.
+- Menneskerettigheder
+- Kontroversille våben - herunder hvidt fosfor
+- Flyselskaber.
+- Manglende klimaambitioner
+- Engagement i tobaksprodukter og relaterede tjenester.
+- Støtte til virksomheder i besatte områder
+- Usunde fødevarer
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Biodiversitet
+- Kontroversielle våben
+- Flyselskaber
+- Fossile brændstoffer og fossil ekspansion
+- Gambling
+- Skadelige miljøpraksisser
+- Menneskerettigheder og krænkelse af disse
+- ILO-brud
+- Israel/Palæstina
+- Krydstogtskibe
+- Manglende klimaambitioner
+- Principal Adverse Impacts (PAI)
+- Tobak
+- Støtte til bosættelser
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Biodiversitet og dets påvirkninger
+- Kontroversielle våben
+- Sortlistede lande
+- Ejendomsopkøb
+- Flyselskaber
+- Fossile brændstoffer
+- Gambling
+- Ledelsespraksis
+- Skadelige miljøpraksisser
+- Menneskerettigheder
+- ILO-brud
+- Israel/Palæstina
+- Manglende klimaambitioner
+- Usunde fødevarer
+- Fossile brændstoffer
+- Involvering i tobaksprodukter
+- Støtte til bosættelser</t>
+  </si>
+  <si>
+    <t>- Brud på grundlæggende arbejdstagerrettigheder
+- Biodiversitet og skadelige miljøpraksisser
+- Kontroversielle våben
+- Landepolitik
+- Investeringer i statsobligationer fra emerging markets uden ESG-kriterier
+- Flyselskaber
+- Fossile brændstoffer
+- Menneskerettigheder
+- Miljø
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Brud på grundlæggende arbejdstagerrettigheder
+- Kontroversielle våben
+- Flyselskaber
+- Menneskerettigheder
+- ILO-brud
+- Manglende klimaambitioner
+- Normovertrædelser
+- Tobak
+- Støtte til virksomheder i besatte områder
+- Anvendelse af naturressourcer, især vand og land, til forretningsformål
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Brud på grundlæggende arbejdstagerrettigheder
+- Overtrædelse af ILO-konventionen
+- Brud på FN Global Compact princip 3 og 4
+- Kontroversielle våben
+- Flyselskaber
+- Menneskerettigheder
+- ILO-brud
+- Menneskerettigheder
+- Manglende klimaambitioner
+- Normer
+- Principal Adverse Impacts (PAI)
+- Tobak
+- Støtte til tjenester og forsyninger i besættelsesområder
+- Støtte til sikkerhedstjenester og udstyr i besættelsesområder
+- Udnyttelse af naturressourcer, især vand og jord, til forretningsbrug, til forretningsbrug, til forretningsbrug, til forretningsbrug
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder: Overtrædelser af grundlæggende rettigheder i arbejdet.
+- Brud på ILO-konventioner, bl.a. konvention 87
+- Overtrædelser der strider imod FN Global Compact principper (3 og 4).
+- Kontroversielle våben
+- Flyselskaber
+- Menneskerettigheder
+- Normer
+- Manglende klimaambitioner
+- Usunde fødevarer
+- Støtte til tjenester og forsyninger i besættelsesområder
+- Leverance af sikkerhedstjenester til virksomheder i bosættelser: Investeringer der bidrager til konfliktområder.</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Brud på grundlæggende arbejdstagerrettigheder
+- Biodiversitet
+- Kontroversielle våben
+- EU-sanktioner
+- Ejendomsopkøb
+- Statsobligationer fra emerging markets uden ESG-kriterier
+- Flyselskaber
+- Fossile brændstoffer
+- Dårlig ledelsespraksis
+- Skadelige miljøpraksisser
+- Menneskerettigheder
+- ILO-brud
+- Landepolitik
+- Manglende klimaambitioner
+- Miljømæssige normbrud
+- Hovedsagelige negative virkninger (Principal Adverse Impacts)
+- Tjenester og forsyninger, der understøtter opretholdelse af bosættelser
+- Udnyttelse af naturressourcer, især vand og land
+- Termisk kul og dets udvinding
+- Usunde fødevarer
+- Kul (kul-eksponering &gt; 5%
+- Kul (kul-eksponering &gt; 5%</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder, herunder overtrædelser af ILO-konventioner.
+- Brud på grundlæggende rettigheder for arbejdstagere, i strid med FN Global Compact principper.
+- Kontroversielle våben
+- Flyselskaber
+- Menneskerettigheder
+- Manglende klimaambitioner
+- Negative konsekvenser for sociale forhold (Principal Adverse Impacts - PAI).
+- Tobak
+- Levering af tjenesteydelser og forsyninger til bosættelser.
+- Forsyning af sikkerhedstjenester til virksomheder i bosættelser.
+- Utilstrækkelig forvaltning af naturressourcer (vand og land) i erhvervssammenhæng.
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Alkohol
+- Arbejdstagerrettigheder
+- Biodiversitet
+- Kontroversielle våben
+- Dårlig regeringsførelse
+- EU-sanktioner
+- Eksklusion af investeringsuegnede lande
+- Emerging Markets statsobligationer uden ESG-kriterier
+- Flyselskaber
+- Fossil brændstof relaterede aktiviteter (Fracking, Oil Sand, Transition, Ekspansion)
+- Gambling
+- Integreret olie og gas
+- Internationale normer og konvention overtrædelser
+- Israel/Palæstina
+- Klima- og miljøproblemer
+- Krydstogtskibe
+- Landepolitik
+- Lav ESG-præstation
+- Menneskerettigheder
+- Militært udstyr
+- Miljøforurening og sundhedssikkerhedsstandarder
+- Olie og gasudvinding
+- Gambling
+- Principal Adverse Impacts (PAI)
+- Tobak
+- Risikovurdering af ESG-forhold
+- Sikkerhedsforhold
+- Skat og EU's sortliste
+- Tar sands
+- Tjenester og forsyninger til bosættelser
+- Naturressourcer til forretningsformål
+- Termisk kuludvinding
+- Usunde fødevarer
+- Utilfredsstillende regerings- og forvaltningspraksis
+- Våben og militær
+- Uden relevante data</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder og relaterede brud 
+- Biodiversitet og skader på biodiversitet 
+- Brud på arbejdstagerrettigheder ifølge FN Global Compact 
+- Kontroversielle våben 
+- Flyselskaber 
+- Fossile brændstoffer og fossil ekspansion 
+- Gambling 
+- Skadelige miljøpraksis 
+- Menneskerettigheder 
+- Kul og eksponering for kul 
+- Manglende klimaambitioner 
+- Negative primære konsekvenser (PAI) 
+- Tobak 
+- Tjenester, der støtter bosættelser 
+- Levering af sikkerhedstjenester til virksomheder i bosættelser 
+- Udnyttelse af naturressourcer, især vand og land 
+- Usunde fødevarer 
+- Krydstogtskibe
+- Krydstogtskibe</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Brud på grundlæggende arbejdstagerrettigheder
+- Biodiversitet
+- Kontroversielle våben
+- Ejendomsopkøb
+- Fossile brændstoffer (kul, olie, gas)
+- Miljømæssig praksis
+- Menneskerettigheder
+- Involvering i hvidt fosfor produktion
+- Manglende klimaambitioner
+- Usunde fødevarer
+- Utilfredsstillende ledelsespraksis
+- Konflikter med internationale normer og konventioner
+- Anvendelse af naturressourcer (vand og land) til forretningsformål
+- Tjenester, der understøtter opretholdelse af bosættelser
+- Levering af sikkerhedstjenester til bosættelser
+- Menneskerettigheder</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder, herunder brud på ILO-konventioner og FN Global Compact principper.
+- Biodiversitetsproblemer og skadelig miljøpraksis.
+- Kontroversielle våben, herunder hvidt fosfor.
+- Overtrædelse af EU-sanktioner.
+- Israel/Palæstina
+- Investeringer i emerging markets statsobligationer, der ikke overholder ESG-kriterier.
+- Deltagelse i fossile brændstoffer, herunder kul og fossil brændstofudvidelse.
+- Manglende overholdelse af internationale normer, især relateret til menneskerettigheder.
+- Dårlig ledelsepraksis og normbrud.
+- Usunde fødevarer</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder
+- Brud på arbejdstagerrettigheder
+- Biodiversitet
+- Kontroversielle våben, herunder hvidt fosfor, herunder hvidt fosfor, herunder hvidt fosfor, herunder hvidt fosfor
+- EU-sanktioner
+- Ejendomsopkøb
+- Emerging Markets statsobligationer uden ESG-kriterier
+- Flyselskaber
+- Fossil brændstofudvidelse
+- Skadelige miljøpraksisser
+- Menneskerettigheder
+- Internationale normer og konventioner
+- Konflikter med UN Global Compact principper
+- Kul eksponering over 5%
+- Landepolitik
+- Manglende klimaambitioner
+- Normbrud relateret til miljø
+- Usunde fødevarer
+  - Negative miljøpåvirkninger
+  - Dårlige arbejdsforhold og praksisser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Kontroversielle våben
+  - Principale negative påvirkninger (PAI)</t>
+  </si>
+  <si>
+    <t>- Overtrædelser af arbejdstagerrettigheder, herunder ILO-konventionen.
+- Brud på grundlæggende arbejdstagerrettigheder i strid med FN Global Compact principper.
+- Involvering i kontroversielle våben.
+- Flyselskaber
+- Menneskerettigheder.
+- Manglende klimaambitioner
+- Usunde fødevarer
 - Inddragelse i forsyning af sikkerhedstjenester til virksomheder i besatte områder.
 - Anvendelse af naturlige ressourcer, især vand og land, til erhvervsmæssige formål.</t>
   </si>
@@ -2021,1129 +2371,1463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>131</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>150</v>
+      </c>
+      <c r="D57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>153</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>155</v>
+      </c>
+      <c r="D63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>157</v>
+      </c>
+      <c r="D65" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>158</v>
+      </c>
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>159</v>
+      </c>
+      <c r="D67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>162</v>
+      </c>
+      <c r="D72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>163</v>
+      </c>
+      <c r="D73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>166</v>
+      </c>
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>167</v>
+      </c>
+      <c r="D78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>168</v>
+      </c>
+      <c r="D79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>170</v>
+      </c>
+      <c r="D83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="D84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="D85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>174</v>
+      </c>
+      <c r="D87" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>176</v>
+      </c>
+      <c r="D89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>177</v>
+      </c>
+      <c r="D90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>178</v>
+      </c>
+      <c r="D91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>107</v>
+      </c>
+      <c r="D92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>179</v>
+      </c>
+      <c r="D93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>180</v>
+      </c>
+      <c r="D94" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>182</v>
+      </c>
+      <c r="D96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>183</v>
+      </c>
+      <c r="D97" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D98" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>185</v>
+      </c>
+      <c r="D99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>186</v>
+      </c>
+      <c r="D100" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>187</v>
+      </c>
+      <c r="D101" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>188</v>
+      </c>
+      <c r="D102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>189</v>
+      </c>
+      <c r="D103" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="C102" t="s">
-        <v>185</v>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/src/ai_text_corrected.xlsx
+++ b/src/ai_text_corrected.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="189">
   <si>
     <t>Kommune</t>
   </si>
   <si>
     <t>Resumé</t>
-  </si>
-  <si>
-    <t>Resumé_renset</t>
   </si>
   <si>
     <t>Rudersdal</t>
@@ -413,7 +410,7 @@
 - Manglende klimaambitioner
 - Menneskerettigheder
 - Principal Adverse Impacts (PAI)
-- Engagement i tobaksprodukter
+- Tobak
 - Fossile brændstoffer
 - Usunde fødevarer</t>
   </si>
@@ -490,7 +487,7 @@
 - Skadelige miljøpraksisser
 - Menneskerettigheder og krænkelse heraf
 - Manglende klimaambitioner
-- Involvering i tobaksprodukter
+- Tobak
 - Støtte til bosættelser
 - Udvinding af termisk kul
 - Usunde fødevarer</t>
@@ -526,7 +523,6 @@
 - Menneskerettigheder
 - Militær udstyr
 - Miljø og sundhedsnormer
-- Gambling
 - Skat og EU's sortliste
 - Støtte af bosættelser
 - Usunde fødevarer</t>
@@ -600,7 +596,7 @@
 - Krydstogtskibe
 - Manglende klimaambitioner
 - Principal Adverse Impacts (PAI)
-- Involvering i tobaksprodukter
+- Tobak
 - Støtte til bosættelser
 - Usunde fødevarer</t>
   </si>
@@ -686,9 +682,8 @@
 - Israel/Palæstina
 - Manglende klimaambitioner
 - Usunde fødevarer
-- Fossile brændstoffer
 - Involvering i tobaksprodukter
-- TStøtte til bosættelser</t>
+- Støtte til bosættelser</t>
   </si>
   <si>
     <t>- Eksklusionsårsager ved investeringer i Region Hovedstaden inkluderer:
@@ -758,7 +753,7 @@
 - Fossile brændstoffer
 - Menneskerettigheder
 - Miljø
-- Usunde fødevarer og deres indvirkning på sundhed</t>
+- Usunde fødevarer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
@@ -838,7 +833,7 @@
 - ILO-brud
 - Manglende klimaambitioner
 - Normovertrædelser
-- Involvering i tobaksprodukter
+- Tobak
 - Støtte til virksomheder i besatte områder
 - Anvendelse af naturressourcer, især vand og land, til forretningsformål
 - Usunde fødevarer</t>
@@ -897,14 +892,13 @@
 - Flyselskaber
 - Menneskerettigheder
 - ILO-brud
-- Menneskerettigheder
 - Manglende klimaambitioner
 - Normer
 - Principal Adverse Impacts (PAI)
 - Tobak
 - Støtte til tjenester og forsyninger i besættelsesområder
 - Støtte til sikkerhedstjenester og udstyr i besættelsesområder
-- Udnyttelse af naturressourcer, især vand og jord, til forretningsbrug, til forretningsbrug, til forretningsbrug
+- Udnyttelse af naturressourcer, især vand og jord, til forretningsbrug, til forretningsbrug, til forretningsbrug, til forretningsbrug
 - Usunde fødevarer</t>
   </si>
   <si>
@@ -973,7 +967,7 @@
     <t>- Arbejdstagerrettigheder: Overtrædelser af grundlæggende rettigheder i arbejdet.
 - Brud på ILO-konventioner, bl.a. konvention 87
 - Overtrædelser der strider imod FN Global Compact principper (3 og 4).
-- Kontroversielle våben: Investeringer relateret til produktion og salg.
+- Kontroversielle våben
 - Flyselskaber
 - Menneskerettigheder
 - Normer
@@ -1094,7 +1088,7 @@
 - Kontroversielle våben
 - Flyselskaber
 - Menneskerettigheder
-- Manglende indsats for klimaspørgsmål.
+- Manglende klimaambitioner
 - Negative konsekvenser for sociale forhold (Principal Adverse Impacts - PAI).
 - Tobak
 - Levering af tjenesteydelser og forsyninger til bosættelser.
@@ -1226,7 +1220,7 @@
 - Fossil brændstof relaterede aktiviteter (Fracking, Oil Sand, Transition, Ekspansion)
 - Gambling
 - Integreret olie og gas
-- International norm og konvention overtrædelser
+- Internationale normer og konvention overtrædelser
 - Israel/Palæstina
 - Klima- og miljøproblemer
 - Krydstogtskibe
@@ -1236,7 +1230,6 @@
 - Militært udstyr
 - Miljøforurening og sundhedssikkerhedsstandarder
 - Olie og gasudvinding
-- Gambling
 - Principal Adverse Impacts (PAI)
 - Tobak
 - Risikovurdering af ESG-forhold
@@ -1432,13 +1425,13 @@
   <si>
     <t>- Arbejdstagerrettigheder, herunder brud på ILO-konventioner og FN Global Compact principper.
 - Biodiversitetsproblemer og skadelig miljøpraksis.
-- Involvering med kontroversielle våben, herunder hvidt fosfor.
+- Kontroversielle våben, herunder hvidt fosfor.
 - Overtrædelse af EU-sanktioner.
 - Israel/Palæstina
 - Investeringer i emerging markets statsobligationer, der ikke overholder ESG-kriterier.
 - Deltagelse i fossile brændstoffer, herunder kul og fossil brændstofudvidelse.
 - Manglende overholdelse af internationale normer, især relateret til menneskerettigheder.
-- Problemer med god ledelsespraksis og normbrud.
+- Dårlig ledelsepraksis og normbrud.
 - Usunde fødevarer</t>
   </si>
   <si>
@@ -1454,7 +1447,6 @@
 - ILO-brud
 - Internationale sanktioner og forretningsetik
 - Israel/Palæstina
-- Menneskerettigheder
 - Kul (kul-eksponering &gt; 5%)
 - Manglende klimaambitioner
 - Normovertrædelser
@@ -1559,7 +1551,7 @@
     <t>- Arbejdstagerrettigheder
 - Brud på arbejdstagerrettigheder
 - Biodiversitet
-- Kontroversielle våben, herunder hvidt fosfor, herunder hvidt fosfor, herunder hvidt fosfor
+- Kontroversielle våben, herunder hvidt fosfor, herunder hvidt fosfor, herunder hvidt fosfor, herunder hvidt fosfor
 - EU-sanktioner
 - Ejendomsopkøb
 - Emerging Markets statsobligationer uden ESG-kriterier
@@ -1642,8 +1634,7 @@
   </si>
   <si>
     <t xml:space="preserve">  - Kontroversielle våben
-  - Principale negative påvirkninger (PAI)
-  - Miljømæssig bæredygtighed</t>
+  - Principale negative påvirkninger (PAI)</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
@@ -1670,350 +1661,12 @@
 - Flyselskaber
 - Menneskerettigheder.
 - Manglende klimaambitioner
-- Engagement i usunde fødevareprodukter.
+- Usunde fødevarer
 - Inddragelse i forsyning af sikkerhedstjenester til virksomheder i besatte områder.
 - Anvendelse af naturlige ressourcer, især vand og land, til erhvervsmæssige formål.</t>
   </si>
   <si>
     <t>Der er ike noget relevant data.</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder, herunder brud på ILO-konventioner og FN Global Compact principper
-- Biodiversitet og skadelige miljøpraksisser
-- Kontroversielle våben
-- Ejendomsopkøb
-- Flyselskaber
-- Fossile brændstoffer, herunder kul og fossil ekspansion
-- Gambling
-- Menneskerettigheder
-- Usunde fødevarer
-- Manglende klimaambitioner
-- Israel/Palæstina
-- Krydstogtsskibe
-- Ledelsespraksis
-- Israel/Palæstina
-- Krydstogtsskibe
-- Ledelsespraksis</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Kontroversielle våben
-- Flyselskaber
-- Israel/Palæstina
-- Manglende klimaambitioner
-- Menneskerettigheder
-- Principal Adverse Impacts (PAI)
-- Tobak
-- Fossile brændstoffer
-- Usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Alkohol
-- Arbejdstagerrettigheder
-- Atomvåben
-- Biodiversitet
-- Kontroversielle våben (inkl. hvidt fosfor)
-- Ejendomsopkøb
-- Fossile brændstoffer
-- Gambling
-- Miljømæssige skadelige praksisser 
-- Menneskerettigheder
-- ILO-brud
-- Internationale normer og sanktioner 
-- Manglende klimaambitioner
-- Miljø
-- Usunde fødevarer
-- Våben og militært udstyr
-- Støtte af bosættelser
-- Støtte af bosættelser</t>
-  </si>
-  <si>
-    <t>- Arbejdestagerrettigheder
-- Biodiversitetspåvirkninger
-- Kontroversielle våben
-- Flyselskaber
-- Fossile brændstoffer
-- Gambling
-- Skadelige miljøpraksisser
-- Menneskerettigheder og krænkelse heraf
-- Manglende klimaambitioner
-- Tobak
-- Støtte til bosættelser
-- Udvinding af termisk kul
-- Usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder og relaterede brud, herunder ILO-konventionen.
-- Menneskerettigheder
-- Kontroversille våben - herunder hvidt fosfor
-- Flyselskaber.
-- Manglende klimaambitioner
-- Engagement i tobaksprodukter og relaterede tjenester.
-- Støtte til virksomheder i besatte områder
-- Usunde fødevarer
-- Usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Biodiversitet
-- Kontroversielle våben
-- Flyselskaber
-- Fossile brændstoffer og fossil ekspansion
-- Gambling
-- Skadelige miljøpraksisser
-- Menneskerettigheder og krænkelse af disse
-- ILO-brud
-- Israel/Palæstina
-- Krydstogtskibe
-- Manglende klimaambitioner
-- Principal Adverse Impacts (PAI)
-- Tobak
-- Støtte til bosættelser
-- Usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Biodiversitet og dets påvirkninger
-- Kontroversielle våben
-- Sortlistede lande
-- Ejendomsopkøb
-- Flyselskaber
-- Fossile brændstoffer
-- Gambling
-- Ledelsespraksis
-- Skadelige miljøpraksisser
-- Menneskerettigheder
-- ILO-brud
-- Israel/Palæstina
-- Manglende klimaambitioner
-- Usunde fødevarer
-- Fossile brændstoffer
-- Involvering i tobaksprodukter
-- Støtte til bosættelser</t>
-  </si>
-  <si>
-    <t>- Brud på grundlæggende arbejdstagerrettigheder
-- Biodiversitet og skadelige miljøpraksisser
-- Kontroversielle våben
-- Landepolitik
-- Investeringer i statsobligationer fra emerging markets uden ESG-kriterier
-- Flyselskaber
-- Fossile brændstoffer
-- Menneskerettigheder
-- Miljø
-- Usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder
-- Kontroversielle våben
-- Flyselskaber
-- Menneskerettigheder
-- ILO-brud
-- Manglende klimaambitioner
-- Normovertrædelser
-- Tobak
-- Støtte til virksomheder i besatte områder
-- Anvendelse af naturressourcer, især vand og land, til forretningsformål
-- Usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder
-- Overtrædelse af ILO-konventionen
-- Brud på FN Global Compact princip 3 og 4
-- Kontroversielle våben
-- Flyselskaber
-- Menneskerettigheder
-- ILO-brud
-- Menneskerettigheder
-- Manglende klimaambitioner
-- Normer
-- Principal Adverse Impacts (PAI)
-- Tobak
-- Støtte til tjenester og forsyninger i besættelsesområder
-- Støtte til sikkerhedstjenester og udstyr i besættelsesområder
-- Udnyttelse af naturressourcer, især vand og jord, til forretningsbrug, til forretningsbrug, til forretningsbrug, til forretningsbrug
-- Usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder: Overtrædelser af grundlæggende rettigheder i arbejdet.
-- Brud på ILO-konventioner, bl.a. konvention 87
-- Overtrædelser der strider imod FN Global Compact principper (3 og 4).
-- Kontroversielle våben
-- Flyselskaber
-- Menneskerettigheder
-- Normer
-- Manglende klimaambitioner
-- Usunde fødevarer
-- Støtte til tjenester og forsyninger i besættelsesområder
-- Leverance af sikkerhedstjenester til virksomheder i bosættelser: Investeringer der bidrager til konfliktområder.</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder
-- Biodiversitet
-- Kontroversielle våben
-- EU-sanktioner
-- Ejendomsopkøb
-- Statsobligationer fra emerging markets uden ESG-kriterier
-- Flyselskaber
-- Fossile brændstoffer
-- Dårlig ledelsespraksis
-- Skadelige miljøpraksisser
-- Menneskerettigheder
-- ILO-brud
-- Landepolitik
-- Manglende klimaambitioner
-- Miljømæssige normbrud
-- Hovedsagelige negative virkninger (Principal Adverse Impacts)
-- Tjenester og forsyninger, der understøtter opretholdelse af bosættelser
-- Udnyttelse af naturressourcer, især vand og land
-- Termisk kul og dets udvinding
-- Usunde fødevarer
-- Kul (kul-eksponering &gt; 5%
-- Kul (kul-eksponering &gt; 5%</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder, herunder overtrædelser af ILO-konventioner.
-- Brud på grundlæggende rettigheder for arbejdstagere, i strid med FN Global Compact principper.
-- Kontroversielle våben
-- Flyselskaber
-- Menneskerettigheder
-- Manglende klimaambitioner
-- Negative konsekvenser for sociale forhold (Principal Adverse Impacts - PAI).
-- Tobak
-- Levering af tjenesteydelser og forsyninger til bosættelser.
-- Forsyning af sikkerhedstjenester til virksomheder i bosættelser.
-- Utilstrækkelig forvaltning af naturressourcer (vand og land) i erhvervssammenhæng.
-- Usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Alkohol
-- Arbejdstagerrettigheder
-- Biodiversitet
-- Kontroversielle våben
-- Dårlig regeringsførelse
-- EU-sanktioner
-- Eksklusion af investeringsuegnede lande
-- Emerging Markets statsobligationer uden ESG-kriterier
-- Flyselskaber
-- Fossil brændstof relaterede aktiviteter (Fracking, Oil Sand, Transition, Ekspansion)
-- Gambling
-- Integreret olie og gas
-- Internationale normer og konvention overtrædelser
-- Israel/Palæstina
-- Klima- og miljøproblemer
-- Krydstogtskibe
-- Landepolitik
-- Lav ESG-præstation
-- Menneskerettigheder
-- Militært udstyr
-- Miljøforurening og sundhedssikkerhedsstandarder
-- Olie og gasudvinding
-- Gambling
-- Principal Adverse Impacts (PAI)
-- Tobak
-- Risikovurdering af ESG-forhold
-- Sikkerhedsforhold
-- Skat og EU's sortliste
-- Tar sands
-- Tjenester og forsyninger til bosættelser
-- Naturressourcer til forretningsformål
-- Termisk kuludvinding
-- Usunde fødevarer
-- Utilfredsstillende regerings- og forvaltningspraksis
-- Våben og militær
-- Uden relevante data</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder og relaterede brud 
-- Biodiversitet og skader på biodiversitet 
-- Brud på arbejdstagerrettigheder ifølge FN Global Compact 
-- Kontroversielle våben 
-- Flyselskaber 
-- Fossile brændstoffer og fossil ekspansion 
-- Gambling 
-- Skadelige miljøpraksis 
-- Menneskerettigheder 
-- Kul og eksponering for kul 
-- Manglende klimaambitioner 
-- Negative primære konsekvenser (PAI) 
-- Tobak 
-- Tjenester, der støtter bosættelser 
-- Levering af sikkerhedstjenester til virksomheder i bosættelser 
-- Udnyttelse af naturressourcer, især vand og land 
-- Usunde fødevarer 
-- Krydstogtskibe
-- Krydstogtskibe</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på grundlæggende arbejdstagerrettigheder
-- Biodiversitet
-- Kontroversielle våben
-- Ejendomsopkøb
-- Fossile brændstoffer (kul, olie, gas)
-- Miljømæssig praksis
-- Menneskerettigheder
-- Involvering i hvidt fosfor produktion
-- Manglende klimaambitioner
-- Usunde fødevarer
-- Utilfredsstillende ledelsespraksis
-- Konflikter med internationale normer og konventioner
-- Anvendelse af naturressourcer (vand og land) til forretningsformål
-- Tjenester, der understøtter opretholdelse af bosættelser
-- Levering af sikkerhedstjenester til bosættelser
-- Menneskerettigheder</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder, herunder brud på ILO-konventioner og FN Global Compact principper.
-- Biodiversitetsproblemer og skadelig miljøpraksis.
-- Kontroversielle våben, herunder hvidt fosfor.
-- Overtrædelse af EU-sanktioner.
-- Israel/Palæstina
-- Investeringer i emerging markets statsobligationer, der ikke overholder ESG-kriterier.
-- Deltagelse i fossile brændstoffer, herunder kul og fossil brændstofudvidelse.
-- Manglende overholdelse af internationale normer, især relateret til menneskerettigheder.
-- Dårlig ledelsepraksis og normbrud.
-- Usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Brud på arbejdstagerrettigheder
-- Biodiversitet
-- Kontroversielle våben, herunder hvidt fosfor, herunder hvidt fosfor, herunder hvidt fosfor, herunder hvidt fosfor
-- EU-sanktioner
-- Ejendomsopkøb
-- Emerging Markets statsobligationer uden ESG-kriterier
-- Flyselskaber
-- Fossil brændstofudvidelse
-- Skadelige miljøpraksisser
-- Menneskerettigheder
-- Internationale normer og konventioner
-- Konflikter med UN Global Compact principper
-- Kul eksponering over 5%
-- Landepolitik
-- Manglende klimaambitioner
-- Normbrud relateret til miljø
-- Usunde fødevarer
-  - Negative miljøpåvirkninger
-  - Dårlige arbejdsforhold og praksisser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - Kontroversielle våben
-  - Principale negative påvirkninger (PAI)</t>
-  </si>
-  <si>
-    <t>- Overtrædelser af arbejdstagerrettigheder, herunder ILO-konventionen.
-- Brud på grundlæggende arbejdstagerrettigheder i strid med FN Global Compact principper.
-- Involvering i kontroversielle våben.
-- Flyselskaber
-- Menneskerettigheder.
-- Manglende klimaambitioner
-- Usunde fødevarer
-- Inddragelse i forsyning af sikkerhedstjenester til virksomheder i besatte områder.
-- Anvendelse af naturlige ressourcer, især vand og land, til erhvervsmæssige formål.</t>
   </si>
 </sst>
 </file>
@@ -2371,1463 +2024,1151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
-      </c>
-      <c r="D66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
-      </c>
-      <c r="D68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
-      </c>
-      <c r="D75" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
-      </c>
-      <c r="D79" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="D84" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
-      </c>
-      <c r="D85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
-      </c>
-      <c r="D87" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
-      </c>
-      <c r="D88" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
-      </c>
-      <c r="D90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
-      </c>
-      <c r="D92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>179</v>
-      </c>
-      <c r="D93" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>182</v>
-      </c>
-      <c r="D96" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
-      </c>
-      <c r="D97" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>185</v>
-      </c>
-      <c r="D99" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
-      </c>
-      <c r="D100" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>187</v>
-      </c>
-      <c r="D101" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>188</v>
-      </c>
-      <c r="D102" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
-      </c>
-      <c r="D103" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
-      </c>
-      <c r="D104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/src/ai_text_corrected.xlsx
+++ b/src/ai_text_corrected.xlsx
@@ -178,157 +178,157 @@
     <t>Vordingborg</t>
   </si>
   <si>
+    <t>Gentofte</t>
+  </si>
+  <si>
+    <t>Køge</t>
+  </si>
+  <si>
+    <t>Solrød</t>
+  </si>
+  <si>
+    <t>Esbjerg</t>
+  </si>
+  <si>
+    <t>Fredericia</t>
+  </si>
+  <si>
+    <t>Region Midtjylland</t>
+  </si>
+  <si>
+    <t>Aarhus</t>
+  </si>
+  <si>
+    <t>Region Syddanmark</t>
+  </si>
+  <si>
+    <t>Brøndby</t>
+  </si>
+  <si>
+    <t>Vallensbæk</t>
+  </si>
+  <si>
+    <t>Thisted</t>
+  </si>
+  <si>
+    <t>Norddjurs</t>
+  </si>
+  <si>
+    <t>Hørsholm</t>
+  </si>
+  <si>
+    <t>Halsnæs</t>
+  </si>
+  <si>
+    <t>Faxe</t>
+  </si>
+  <si>
+    <t>Tårnby</t>
+  </si>
+  <si>
+    <t>Hedensted</t>
+  </si>
+  <si>
+    <t>Brønderslev</t>
+  </si>
+  <si>
+    <t>Kalundborg</t>
+  </si>
+  <si>
+    <t>Herning</t>
+  </si>
+  <si>
+    <t>Tønder</t>
+  </si>
+  <si>
+    <t>Ishøj</t>
+  </si>
+  <si>
+    <t>Roskilde</t>
+  </si>
+  <si>
+    <t>Egedal</t>
+  </si>
+  <si>
+    <t>Assens</t>
+  </si>
+  <si>
+    <t>Holbæk</t>
+  </si>
+  <si>
+    <t>Ringsted</t>
+  </si>
+  <si>
+    <t>Allerød</t>
+  </si>
+  <si>
+    <t>Vejle</t>
+  </si>
+  <si>
+    <t>Morsø</t>
+  </si>
+  <si>
+    <t>Rødovre</t>
+  </si>
+  <si>
+    <t>Skive</t>
+  </si>
+  <si>
+    <t>Høje Taastrup</t>
+  </si>
+  <si>
+    <t>Aabenraa</t>
+  </si>
+  <si>
+    <t>Holstebro</t>
+  </si>
+  <si>
+    <t>Slagelse</t>
+  </si>
+  <si>
+    <t>Vesthimmerland</t>
+  </si>
+  <si>
+    <t>Glostrup</t>
+  </si>
+  <si>
+    <t>Kerteminde</t>
+  </si>
+  <si>
+    <t>Hillerød</t>
+  </si>
+  <si>
+    <t>Lemvig</t>
+  </si>
+  <si>
+    <t>Struer</t>
+  </si>
+  <si>
+    <t>Nordfyn</t>
+  </si>
+  <si>
+    <t>Furesø</t>
+  </si>
+  <si>
+    <t>Varde</t>
+  </si>
+  <si>
+    <t>Haderslev</t>
+  </si>
+  <si>
+    <t>Odense</t>
+  </si>
+  <si>
+    <t>Lejre</t>
+  </si>
+  <si>
+    <t>Samsø</t>
+  </si>
+  <si>
+    <t>Læsø</t>
+  </si>
+  <si>
     <t>København</t>
-  </si>
-  <si>
-    <t>Gentofte</t>
-  </si>
-  <si>
-    <t>Køge</t>
-  </si>
-  <si>
-    <t>Solrød</t>
-  </si>
-  <si>
-    <t>Esbjerg</t>
-  </si>
-  <si>
-    <t>Fredericia</t>
-  </si>
-  <si>
-    <t>Region Midtjylland</t>
-  </si>
-  <si>
-    <t>Aarhus</t>
-  </si>
-  <si>
-    <t>Region Syddanmark</t>
-  </si>
-  <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
-    <t>Vallensbæk</t>
-  </si>
-  <si>
-    <t>Thisted</t>
-  </si>
-  <si>
-    <t>Norddjurs</t>
-  </si>
-  <si>
-    <t>Hørsholm</t>
-  </si>
-  <si>
-    <t>Halsnæs</t>
-  </si>
-  <si>
-    <t>Faxe</t>
-  </si>
-  <si>
-    <t>Tårnby</t>
-  </si>
-  <si>
-    <t>Hedensted</t>
-  </si>
-  <si>
-    <t>Brønderslev</t>
-  </si>
-  <si>
-    <t>Kalundborg</t>
-  </si>
-  <si>
-    <t>Herning</t>
-  </si>
-  <si>
-    <t>Tønder</t>
-  </si>
-  <si>
-    <t>Ishøj</t>
-  </si>
-  <si>
-    <t>Roskilde</t>
-  </si>
-  <si>
-    <t>Egedal</t>
-  </si>
-  <si>
-    <t>Assens</t>
-  </si>
-  <si>
-    <t>Holbæk</t>
-  </si>
-  <si>
-    <t>Ringsted</t>
-  </si>
-  <si>
-    <t>Allerød</t>
-  </si>
-  <si>
-    <t>Vejle</t>
-  </si>
-  <si>
-    <t>Morsø</t>
-  </si>
-  <si>
-    <t>Rødovre</t>
-  </si>
-  <si>
-    <t>Skive</t>
-  </si>
-  <si>
-    <t>Høje Taastrup</t>
-  </si>
-  <si>
-    <t>Aabenraa</t>
-  </si>
-  <si>
-    <t>Holstebro</t>
-  </si>
-  <si>
-    <t>Slagelse</t>
-  </si>
-  <si>
-    <t>Vesthimmerland</t>
-  </si>
-  <si>
-    <t>Glostrup</t>
-  </si>
-  <si>
-    <t>Kerteminde</t>
-  </si>
-  <si>
-    <t>Hillerød</t>
-  </si>
-  <si>
-    <t>Lemvig</t>
-  </si>
-  <si>
-    <t>Struer</t>
-  </si>
-  <si>
-    <t>Nordfyn</t>
-  </si>
-  <si>
-    <t>Furesø</t>
-  </si>
-  <si>
-    <t>Varde</t>
-  </si>
-  <si>
-    <t>Haderslev</t>
-  </si>
-  <si>
-    <t>Odense</t>
-  </si>
-  <si>
-    <t>Lejre</t>
-  </si>
-  <si>
-    <t>Samsø</t>
-  </si>
-  <si>
-    <t>Læsø</t>
   </si>
   <si>
     <t>- Alkohol
@@ -937,16 +937,6 @@
 - Manglende klimaambitioner
 - Anvendelse af naturressourcer (vand og land) til forretningsformål
 - Usunde fødevarer</t>
-  </si>
-  <si>
-    <t>- Arbejdstagerrettigheder
-- Kontroversielle våben 
-- Produktion af hvidt fosfor
-- Israel/Palæstina
-- Thermal coal extraction
-- Usunde fødevarer
-- Principal Adverse Impacts (PAI)
-- Normer</t>
   </si>
   <si>
     <t>- Arbejdstagerrettigheder
@@ -1667,6 +1657,16 @@
   </si>
   <si>
     <t>Der er ike noget relevant data.</t>
+  </si>
+  <si>
+    <t>- Arbejdstagerrettigheder, herunder ILO-konventionen 87
+- Gambling
+- Israel/Palestina-konflikten
+- Manglende klimaambitioner
+- Menneskerettigheder og normovertrædelser
+- Principal Adverse Impacts (PAI)
+- Udfordringer med thermal coal extraction
+- Usunde fødevarer</t>
   </si>
 </sst>
 </file>
@@ -2618,7 +2618,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2695,7 +2695,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2706,7 +2706,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2761,7 +2761,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2772,7 +2772,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2783,7 +2783,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2794,7 +2794,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2849,7 +2849,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2904,7 +2904,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2926,7 +2926,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3025,7 +3025,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3036,7 +3036,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:3">
